--- a/TP4/exercice2.xlsx
+++ b/TP4/exercice2.xlsx
@@ -779,7 +779,9 @@
           <t>Nombre minimum de bobines</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr"/>
+      <c r="B1" t="n">
+        <v>250</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -787,7 +789,9 @@
           <t>Perte totale (cm)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="B2" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -817,11 +821,15 @@
           <t>P1</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
       <c r="C5" t="n">
         <v>60</v>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -829,11 +837,15 @@
           <t>P2</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -841,11 +853,15 @@
           <t>P3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
       <c r="C7" t="n">
         <v>20</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -853,11 +869,15 @@
           <t>P4</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
       <c r="C8" t="n">
         <v>40</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -865,11 +885,15 @@
           <t>P5</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
       <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -877,11 +901,15 @@
           <t>P6</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
       <c r="C10" t="n">
         <v>40</v>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -889,11 +917,15 @@
           <t>P7</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
       <c r="C11" t="n">
         <v>20</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -901,11 +933,15 @@
           <t>P8</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -913,11 +949,15 @@
           <t>P9</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
       <c r="C13" t="n">
         <v>60</v>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -963,8 +1003,12 @@
       <c r="C18" t="n">
         <v>240</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>240</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -976,8 +1020,12 @@
       <c r="C19" t="n">
         <v>190</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>190</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -989,8 +1037,12 @@
       <c r="C20" t="n">
         <v>120</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>120</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1002,8 +1054,12 @@
       <c r="C21" t="n">
         <v>100</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>100</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
